--- a/회전변환 상관계수.xlsx
+++ b/회전변환 상관계수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJB\data_analysis\24_precipitation_prediction_using_satellite_observation_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA4B386-8339-4D3E-9EB5-86B1767F7B43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D78DA6-1187-45E3-8E77-7ECD63638911}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66D551A4-5F7B-4D5C-BF45-7DC1F7683B00}"/>
   </bookViews>
